--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="363">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Slot.meta.profile:sas-slot-aggregator</t>
+  </si>
+  <si>
+    <t>sas-slot-aggregator</t>
   </si>
   <si>
     <t>Slot.meta.security</t>
@@ -1428,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM50"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1439,7 +1445,7 @@
   <cols>
     <col min="1" max="1" width="52.1015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.0859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2707,9 +2713,11 @@
         <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2718,7 +2726,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2730,16 +2738,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2750,7 +2758,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2765,13 +2773,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2789,7 +2797,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2815,10 +2823,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2841,16 +2849,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2876,13 +2884,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2900,7 +2908,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2926,10 +2934,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2940,28 +2948,28 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2987,13 +2995,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3011,13 +3019,13 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -3037,10 +3045,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3057,22 +3065,22 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3098,13 +3106,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3122,7 +3130,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3148,14 +3156,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3174,16 +3182,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3209,13 +3217,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3233,7 +3241,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3248,7 +3256,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3259,21 +3267,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3285,16 +3293,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3344,22 +3352,22 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3370,14 +3378,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3396,16 +3404,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3455,7 +3463,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3467,10 +3475,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3481,10 +3489,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3501,7 +3509,7 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>75</v>
@@ -3510,17 +3518,15 @@
         <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3583,7 +3589,7 @@
         <v>113</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3594,14 +3600,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3614,22 +3620,26 @@
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3677,7 +3687,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3689,24 +3699,24 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3717,7 +3727,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3726,16 +3736,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3786,47 +3796,47 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3838,17 +3848,15 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3885,31 +3893,31 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
@@ -3923,46 +3931,44 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3986,44 +3992,46 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4034,10 +4042,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4054,25 +4062,25 @@
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4097,13 +4105,11 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4121,7 +4127,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4136,7 +4142,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4147,10 +4153,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4173,19 +4179,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4198,7 +4204,7 @@
         <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>75</v>
@@ -4210,13 +4216,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4234,7 +4240,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4249,7 +4255,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4260,10 +4266,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4286,18 +4292,20 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4309,7 +4317,7 @@
         <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>75</v>
@@ -4345,7 +4353,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4360,7 +4368,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4371,10 +4379,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4397,15 +4405,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4418,7 +4428,7 @@
         <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>75</v>
@@ -4454,7 +4464,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4469,7 +4479,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4480,10 +4490,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4506,17 +4516,15 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4565,7 +4573,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4580,7 +4588,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4591,10 +4599,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4617,15 +4625,17 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4650,11 +4660,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4678,7 +4690,7 @@
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -4687,21 +4699,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4712,7 +4724,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4724,13 +4736,13 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4757,27 +4769,29 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4798,19 +4812,17 @@
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4831,13 +4843,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4864,29 +4876,27 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4907,17 +4917,19 @@
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4926,7 +4938,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4935,16 +4947,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4971,13 +4983,11 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4995,28 +5005,28 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33">
@@ -5028,14 +5038,14 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5047,17 +5057,15 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5094,34 +5102,34 @@
         <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5132,14 +5140,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5155,23 +5163,21 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5207,19 +5213,19 @@
         <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5228,13 +5234,13 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5245,10 +5251,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5259,7 +5265,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5268,19 +5274,23 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5328,22 +5338,22 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5361,14 +5371,14 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5380,17 +5390,15 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5427,34 +5435,34 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5472,14 +5480,14 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5488,23 +5496,21 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>75</v>
@@ -5540,34 +5546,34 @@
         <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5578,10 +5584,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5589,7 +5595,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5604,18 +5610,20 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5624,7 +5632,7 @@
         <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>75</v>
@@ -5663,7 +5671,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5672,13 +5680,13 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5689,10 +5697,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5715,20 +5723,18 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5776,7 +5782,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5785,13 +5791,13 @@
         <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5802,10 +5808,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5828,19 +5834,19 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5889,7 +5895,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5898,13 +5904,13 @@
         <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5915,10 +5921,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5941,19 +5947,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6002,7 +6008,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6011,13 +6017,13 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -6028,10 +6034,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6054,19 +6060,19 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6115,7 +6121,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6124,13 +6130,13 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6141,10 +6147,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6155,7 +6161,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6167,16 +6173,20 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6200,13 +6210,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6230,30 +6240,30 @@
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6264,7 +6274,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6276,13 +6286,13 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6309,13 +6319,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6333,13 +6343,13 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
@@ -6354,15 +6364,15 @@
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6370,7 +6380,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>85</v>
@@ -6385,13 +6395,13 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6418,13 +6428,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6442,10 +6452,10 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>85</v>
@@ -6463,15 +6473,15 @@
         <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6494,13 +6504,13 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6509,7 +6519,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>75</v>
@@ -6527,13 +6537,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6551,7 +6561,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>85</v>
@@ -6569,7 +6579,7 @@
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -6577,10 +6587,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6603,13 +6613,13 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6618,7 +6628,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>75</v>
@@ -6636,13 +6646,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -6660,7 +6670,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>85</v>
@@ -6678,18 +6688,18 @@
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6715,10 +6725,10 @@
         <v>120</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6769,7 +6779,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>85</v>
@@ -6787,18 +6797,18 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6806,7 +6816,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>85</v>
@@ -6818,25 +6828,23 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6880,10 +6888,10 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>85</v>
@@ -6898,18 +6906,18 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>75</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6932,20 +6940,22 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="R50" t="s" s="2">
         <v>75</v>
       </c>
@@ -6989,7 +6999,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7010,6 +7020,115 @@
         <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Slot, dérivé de FrSlot, pour le service d'agrégation de créneaux de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
+    <t>Profil de Slot, dérivé de FrSlot, pour le service d'agrégation de créneaux de la plateforme SAS [Commun cas d'usage PS Indiv et CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -831,7 +831,7 @@
     <t>TypeConsultation</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-typeconsultation</t>
   </si>
   <si>
     <t>Slot.serviceType:TypeConsultation.id</t>
@@ -1059,6 +1059,21 @@
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.id</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.extension</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.coding</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-appointmentreason</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.text</t>
   </si>
   <si>
     <t>Slot.schedule</t>
@@ -1434,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6489,7 +6504,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>85</v>
@@ -6501,16 +6516,16 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>100</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6561,10 +6576,10 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>339</v>
+        <v>102</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>85</v>
@@ -6573,10 +6588,10 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6587,21 +6602,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6610,25 +6625,27 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>106</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>75</v>
@@ -6646,49 +6663,49 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>112</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>75</v>
@@ -6696,10 +6713,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6707,10 +6724,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6722,16 +6739,20 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>75</v>
       </c>
@@ -6755,13 +6776,11 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -6779,36 +6798,36 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>353</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6816,7 +6835,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>85</v>
@@ -6831,16 +6850,20 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6888,36 +6911,36 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>353</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6925,7 +6948,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>85</v>
@@ -6937,25 +6960,23 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
         <v>75</v>
       </c>
@@ -6999,10 +7020,10 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>85</v>
@@ -7025,10 +7046,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7036,7 +7057,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>85</v>
@@ -7048,16 +7069,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7069,7 +7090,7 @@
         <v>75</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>75</v>
@@ -7084,13 +7105,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7108,10 +7129,10 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>85</v>
@@ -7126,9 +7147,447 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="333">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,14 +821,19 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
+    <t>closed</t>
   </si>
   <si>
     <t>Slot.serviceType:TypeConsultation</t>
   </si>
   <si>
     <t>TypeConsultation</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>blabla</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-typeconsultation</t>
@@ -874,264 +879,153 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Slot.serviceType:TypeConsultation.coding.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.coding.extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding.extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.coding.system</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-ActCode</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.coding.version</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.coding.code</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.coding.display</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding.userSelected</t>
+    <t>Slot.serviceType:TypeConsultation.text</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation</t>
+  </si>
+  <si>
+    <t>motifConsultation</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.text</t>
+  </si>
+  <si>
+    <t>Slot.specialty</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
+  </si>
+  <si>
+    <t>Spécialités ou compétences particulières du PS associées au créneau</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType</t>
+  </si>
+  <si>
+    <t>Créneau avec ou sans RDV</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
+  </si>
+  <si>
+    <t>ROUTINE – Créneau avec prise de RDV possible, WALKIN – Créneau sans prise de RDV possible</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.id</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.extension</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.coding</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-appointmentreason</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.text</t>
+  </si>
+  <si>
+    <t>Slot.schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-schedule-aggregator) &lt;&lt;referenced, bundled&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>The schedule resource that this slot defines an interval of status information</t>
+  </si>
+  <si>
+    <t>The schedule resource that this slot defines an interval of status information.</t>
+  </si>
+  <si>
+    <t>Slot.status</t>
+  </si>
+  <si>
+    <t>busy | free | busy-unavailable | busy-tentative | entered-in-error</t>
+  </si>
+  <si>
+    <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Statut du créneau free/busy</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/slotstatus</t>
+  </si>
+  <si>
+    <t>FREEBUSY;FBTYPE=(freeBusyType):19980314T233000Z/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
+  </si>
+  <si>
+    <t>Slot.start</t>
+  </si>
+  <si>
+    <t>Date de début du créneau</t>
+  </si>
+  <si>
+    <t>FREEBUSY;FBTYPE=FREE:(start)/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Slot.end</t>
+  </si>
+  <si>
+    <t>Date de fin du créneau</t>
+  </si>
+  <si>
+    <t>FREEBUSY:19980314T233000Z/(end) If the freeBusyType is BUSY, then this value can be excluded (as shown)</t>
+  </si>
+  <si>
+    <t>Slot.overbooked</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.text</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Slot.specialty</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
-  </si>
-  <si>
-    <t>Spécialités ou compétences particulières du PS associées au créneau</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
-  </si>
-  <si>
-    <t>Slot.appointmentType</t>
-  </si>
-  <si>
-    <t>Créneau avec ou sans RDV</t>
-  </si>
-  <si>
-    <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
-  </si>
-  <si>
-    <t>ROUTINE – Créneau avec prise de RDV possible, WALKIN – Créneau sans prise de RDV possible</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
-  </si>
-  <si>
-    <t>Slot.appointmentType.id</t>
-  </si>
-  <si>
-    <t>Slot.appointmentType.extension</t>
-  </si>
-  <si>
-    <t>Slot.appointmentType.coding</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-appointmentreason</t>
-  </si>
-  <si>
-    <t>Slot.appointmentType.text</t>
-  </si>
-  <si>
-    <t>Slot.schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-schedule-aggregator) &lt;&lt;referenced, bundled&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>The schedule resource that this slot defines an interval of status information</t>
-  </si>
-  <si>
-    <t>The schedule resource that this slot defines an interval of status information.</t>
-  </si>
-  <si>
-    <t>Slot.status</t>
-  </si>
-  <si>
-    <t>busy | free | busy-unavailable | busy-tentative | entered-in-error</t>
-  </si>
-  <si>
-    <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>Statut du créneau free/busy</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/slotstatus</t>
-  </si>
-  <si>
-    <t>FREEBUSY;FBTYPE=(freeBusyType):19980314T233000Z/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
-  </si>
-  <si>
-    <t>Slot.start</t>
-  </si>
-  <si>
-    <t>Date de début du créneau</t>
-  </si>
-  <si>
-    <t>FREEBUSY;FBTYPE=FREE:(start)/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Slot.end</t>
-  </si>
-  <si>
-    <t>Date de fin du créneau</t>
-  </si>
-  <si>
-    <t>FREEBUSY:19980314T233000Z/(end) If the freeBusyType is BUSY, then this value can be excluded (as shown)</t>
-  </si>
-  <si>
-    <t>Slot.overbooked</t>
   </si>
   <si>
     <t>This slot has already been overbooked, appointments are unlikely to be accepted for this time</t>
@@ -1449,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1458,8 +1352,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4901,14 +4795,14 @@
         <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>256</v>
@@ -4953,7 +4847,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4968,7 +4862,7 @@
         <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>258</v>
@@ -5002,7 +4896,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5046,10 +4940,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5155,10 +5049,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5249,7 +5143,7 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>113</v>
@@ -5266,10 +5160,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5277,10 +5171,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5295,16 +5189,16 @@
         <v>144</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5353,7 +5247,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5362,13 +5256,13 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5379,10 +5273,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5402,19 +5296,23 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5462,7 +5360,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5471,13 +5369,13 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5488,14 +5386,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5511,20 +5411,18 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5549,31 +5447,29 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5582,27 +5478,27 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5610,7 +5506,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5622,23 +5518,19 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5647,7 +5539,7 @@
         <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>75</v>
@@ -5686,7 +5578,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5695,13 +5587,13 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5715,18 +5607,18 @@
         <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5735,19 +5627,19 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5785,34 +5677,34 @@
         <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5823,10 +5715,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5837,7 +5729,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5849,19 +5741,19 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5910,22 +5802,22 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5936,10 +5828,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5947,7 +5839,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>85</v>
@@ -5965,16 +5857,16 @@
         <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6023,7 +5915,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6032,13 +5924,13 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -6049,10 +5941,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6063,7 +5955,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6075,20 +5967,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6112,13 +6000,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6136,36 +6024,36 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6188,20 +6076,16 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6225,13 +6109,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6249,7 +6133,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6258,27 +6142,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6289,7 +6173,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6298,16 +6182,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6334,13 +6218,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6358,47 +6242,47 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6407,18 +6291,20 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6443,60 +6329,60 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>112</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6507,7 +6393,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6516,19 +6402,23 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6552,13 +6442,11 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6576,22 +6464,22 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6602,21 +6490,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6625,21 +6513,23 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6675,34 +6565,34 @@
         <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6713,10 +6603,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6724,10 +6614,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6739,20 +6629,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
       </c>
@@ -6776,11 +6662,13 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -6798,22 +6686,22 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6824,10 +6712,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6835,7 +6723,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>85</v>
@@ -6850,20 +6738,16 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6872,7 +6756,7 @@
         <v>75</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>75</v>
@@ -6887,13 +6771,13 @@
         <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
@@ -6911,25 +6795,25 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -6937,10 +6821,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6963,13 +6847,13 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>345</v>
+        <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7020,7 +6904,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>85</v>
@@ -7038,18 +6922,18 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>75</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7072,13 +6956,13 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7090,7 +6974,7 @@
         <v>75</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>75</v>
@@ -7105,13 +6989,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7129,7 +7013,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>85</v>
@@ -7147,18 +7031,18 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7166,7 +7050,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>85</v>
@@ -7178,23 +7062,25 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>120</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="R52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7238,10 +7124,10 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>85</v>
@@ -7256,18 +7142,18 @@
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>358</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7275,7 +7161,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>85</v>
@@ -7287,16 +7173,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7347,10 +7233,10 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>85</v>
@@ -7365,229 +7251,9 @@
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM55" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="334">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -819,6 +819,10 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.exists()}
+</t>
   </si>
   <si>
     <t>closed</t>
@@ -4795,14 +4799,14 @@
         <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>256</v>
@@ -4831,13 +4835,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>256</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>75</v>
@@ -4847,7 +4851,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4862,7 +4866,7 @@
         <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>258</v>
@@ -4896,7 +4900,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4940,10 +4944,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5049,10 +5053,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5143,7 +5147,7 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>113</v>
@@ -5160,10 +5164,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5189,16 +5193,16 @@
         <v>144</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5247,7 +5251,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5256,13 +5260,13 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5273,10 +5277,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5302,16 +5306,16 @@
         <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5360,7 +5364,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5369,13 +5373,13 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5386,13 +5390,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>256</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>75</v>
@@ -5417,7 +5421,7 @@
         <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>258</v>
@@ -5495,10 +5499,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5604,10 +5608,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5698,7 +5702,7 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>113</v>
@@ -5715,10 +5719,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5744,16 +5748,16 @@
         <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5802,7 +5806,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5811,13 +5815,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5828,10 +5832,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5857,16 +5861,16 @@
         <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -5915,7 +5919,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5924,13 +5928,13 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5941,10 +5945,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5970,10 +5974,10 @@
         <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6003,10 +6007,10 @@
         <v>148</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6024,7 +6028,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6050,10 +6054,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6079,10 +6083,10 @@
         <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6112,10 +6116,10 @@
         <v>170</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6133,7 +6137,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6159,10 +6163,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6268,10 +6272,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6362,7 +6366,7 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>113</v>
@@ -6379,10 +6383,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6408,16 +6412,16 @@
         <v>144</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6446,7 +6450,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6464,7 +6468,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6473,13 +6477,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6490,10 +6494,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6519,16 +6523,16 @@
         <v>99</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6577,7 +6581,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6586,13 +6590,13 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6603,10 +6607,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6629,13 +6633,13 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6686,7 +6690,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>85</v>
@@ -6712,10 +6716,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6741,10 +6745,10 @@
         <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6756,7 +6760,7 @@
         <v>75</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>75</v>
@@ -6774,10 +6778,10 @@
         <v>148</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
@@ -6795,7 +6799,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>85</v>
@@ -6813,7 +6817,7 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -6821,10 +6825,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6850,10 +6854,10 @@
         <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6904,7 +6908,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>85</v>
@@ -6922,18 +6926,18 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6959,10 +6963,10 @@
         <v>120</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7013,7 +7017,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>85</v>
@@ -7031,18 +7035,18 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7065,13 +7069,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7079,7 +7083,7 @@
         <v>75</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>75</v>
@@ -7124,7 +7128,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7150,10 +7154,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7179,10 +7183,10 @@
         <v>99</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7233,7 +7237,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,7 +821,7 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.exists()}
+    <t xml:space="preserve">exists:serviceType.coding}
 </t>
   </si>
   <si>
@@ -1383,7 +1383,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="86.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,7 +821,7 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">exists:serviceType.coding}
+    <t xml:space="preserve">exists:coding.exists()}
 </t>
   </si>
   <si>
@@ -1383,7 +1383,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="86.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.953125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="333">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,11 +821,8 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">exists:coding.exists()}
+    <t xml:space="preserve">exists:serviceType.coding}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Slot.serviceType:TypeConsultation</t>
@@ -1383,7 +1380,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="86.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4806,7 +4803,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>256</v>
@@ -4835,13 +4832,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>256</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>75</v>
@@ -4851,7 +4848,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4866,7 +4863,7 @@
         <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>258</v>
@@ -4900,7 +4897,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4944,10 +4941,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5053,10 +5050,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5147,7 +5144,7 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>113</v>
@@ -5164,10 +5161,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5193,16 +5190,16 @@
         <v>144</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5251,7 +5248,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5260,13 +5257,13 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5277,10 +5274,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5306,16 +5303,16 @@
         <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5364,7 +5361,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5373,13 +5370,13 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5390,13 +5387,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>256</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>75</v>
@@ -5421,7 +5418,7 @@
         <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>258</v>
@@ -5499,10 +5496,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5608,10 +5605,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5702,7 +5699,7 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>113</v>
@@ -5719,10 +5716,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5748,16 +5745,16 @@
         <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5806,7 +5803,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5815,13 +5812,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5832,10 +5829,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5861,16 +5858,16 @@
         <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -5919,7 +5916,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5928,13 +5925,13 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5945,10 +5942,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5974,10 +5971,10 @@
         <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6007,11 +6004,11 @@
         <v>148</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6028,7 +6025,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6054,10 +6051,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6083,10 +6080,10 @@
         <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6116,11 +6113,11 @@
         <v>170</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6137,7 +6134,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6163,10 +6160,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6272,10 +6269,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6366,7 +6363,7 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>113</v>
@@ -6383,10 +6380,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6412,16 +6409,16 @@
         <v>144</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6450,7 +6447,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6468,7 +6465,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6477,13 +6474,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6494,10 +6491,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6523,16 +6520,16 @@
         <v>99</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6581,7 +6578,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6590,13 +6587,13 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6607,10 +6604,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6633,13 +6630,13 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6690,7 +6687,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>85</v>
@@ -6716,10 +6713,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6745,10 +6742,10 @@
         <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6760,7 +6757,7 @@
         <v>75</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>75</v>
@@ -6778,11 +6775,11 @@
         <v>148</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6799,7 +6796,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>85</v>
@@ -6817,7 +6814,7 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -6825,10 +6822,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6854,10 +6851,10 @@
         <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6908,7 +6905,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>85</v>
@@ -6926,18 +6923,18 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6963,10 +6960,10 @@
         <v>120</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7017,7 +7014,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>85</v>
@@ -7035,18 +7032,18 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7069,13 +7066,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7083,7 +7080,7 @@
         <v>75</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>75</v>
@@ -7128,7 +7125,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7154,10 +7151,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7183,10 +7180,10 @@
         <v>99</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7237,7 +7234,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,7 +821,7 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">exists:serviceType.coding}
+    <t xml:space="preserve">exists:serviceType.Coding}
 </t>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="86.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.953125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="26.2265625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,7 +821,7 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">exists:serviceType.Coding}
+    <t xml:space="preserve">exists:coding}
 </t>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="86.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="26.2265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="335">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -825,6 +825,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Slot.serviceType:TypeConsultation</t>
   </si>
   <si>
@@ -834,7 +837,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>blabla</t>
+    <t>Slicing type de consultation structuré (au cabinet, à domicile, téléconsultation)</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-typeconsultation</t>
@@ -908,6 +911,9 @@
   </si>
   <si>
     <t>motifConsultation</t>
+  </si>
+  <si>
+    <t>Slicing type de consulatation pour motif en texte libre</t>
   </si>
   <si>
     <t>Slot.serviceType:motifConsultation.id</t>
@@ -4803,7 +4809,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>256</v>
@@ -4832,13 +4838,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>256</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>75</v>
@@ -4848,7 +4854,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4863,7 +4869,7 @@
         <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>258</v>
@@ -4897,7 +4903,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4941,10 +4947,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5050,10 +5056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5144,7 +5150,7 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>113</v>
@@ -5161,10 +5167,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5190,16 +5196,16 @@
         <v>144</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5248,7 +5254,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5257,13 +5263,13 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5274,10 +5280,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5303,16 +5309,16 @@
         <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5361,7 +5367,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5370,13 +5376,13 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5387,13 +5393,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>256</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>75</v>
@@ -5418,7 +5424,7 @@
         <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>258</v>
@@ -5496,10 +5502,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5605,10 +5611,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5699,7 +5705,7 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>113</v>
@@ -5716,10 +5722,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5745,16 +5751,16 @@
         <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5803,7 +5809,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5812,13 +5818,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5829,10 +5835,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5858,16 +5864,16 @@
         <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -5916,7 +5922,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5925,13 +5931,13 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5942,10 +5948,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5971,10 +5977,10 @@
         <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6004,10 +6010,10 @@
         <v>148</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6025,7 +6031,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6051,10 +6057,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6080,10 +6086,10 @@
         <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6113,10 +6119,10 @@
         <v>170</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6134,7 +6140,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6160,10 +6166,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6269,10 +6275,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6363,7 +6369,7 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>113</v>
@@ -6380,10 +6386,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6409,16 +6415,16 @@
         <v>144</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6447,7 +6453,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6465,7 +6471,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6474,13 +6480,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6491,10 +6497,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6520,16 +6526,16 @@
         <v>99</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6578,7 +6584,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6587,13 +6593,13 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6604,10 +6610,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6630,13 +6636,13 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6687,7 +6693,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>85</v>
@@ -6713,10 +6719,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6742,10 +6748,10 @@
         <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6757,7 +6763,7 @@
         <v>75</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>75</v>
@@ -6775,10 +6781,10 @@
         <v>148</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
@@ -6796,7 +6802,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>85</v>
@@ -6814,7 +6820,7 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -6822,10 +6828,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6851,10 +6857,10 @@
         <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6905,7 +6911,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>85</v>
@@ -6923,18 +6929,18 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6960,10 +6966,10 @@
         <v>120</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7014,7 +7020,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>85</v>
@@ -7032,18 +7038,18 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7066,13 +7072,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7080,7 +7086,7 @@
         <v>75</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>75</v>
@@ -7125,7 +7131,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7151,10 +7157,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7180,10 +7186,10 @@
         <v>99</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7234,7 +7240,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -913,7 +913,7 @@
     <t>motifConsultation</t>
   </si>
   <si>
-    <t>Slicing type de consulatation pour motif en texte libre</t>
+    <t>Slicing type de consultation pour motif en texte libre</t>
   </si>
   <si>
     <t>Slot.serviceType:motifConsultation.id</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
